--- a/pm/backlog.xlsx
+++ b/pm/backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,12 +79,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -99,11 +105,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -129,13 +139,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C13" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C13" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:C13"/>
   <sortState ref="A2:C13">
     <sortCondition ref="A1:A13"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="اولویت" dataDxfId="1"/>
+    <tableColumn id="1" name="اولویت" dataDxfId="0"/>
     <tableColumn id="2" name="عنوان"/>
     <tableColumn id="3" name="شرح"/>
   </tableColumns>
@@ -409,17 +419,17 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.20703125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.20703125" style="1"/>
-    <col min="2" max="2" width="72.9453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.3125" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="1"/>
+    <col min="2" max="2" width="73" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -430,15 +440,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -446,23 +457,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -470,7 +483,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -478,7 +491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -486,7 +499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -494,7 +507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -502,7 +515,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -510,21 +523,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1">
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="C13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pm/backlog.xlsx
+++ b/pm/backlog.xlsx
@@ -419,13 +419,13 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="1"/>
-    <col min="2" max="2" width="73" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -450,12 +450,13 @@
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -543,8 +544,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/pm/backlog.xlsx
+++ b/pm/backlog.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Backlog" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,35 +19,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>ویوی ادمین با قابلیت نمایش نام و نام خانوادگی درخواست کننده</t>
   </si>
   <si>
-    <t>امکان حذف و ویرایش ردیف های درخواست در ویوی ادمین</t>
-  </si>
-  <si>
     <t>مشاهده سابقه سفارش ها</t>
   </si>
   <si>
     <t>مشاهده سابقه معاملات انجام شده</t>
   </si>
   <si>
-    <t>ارسال تیکت ویرایش درخواست از سوی درخواست کننده گان</t>
-  </si>
-  <si>
-    <t>امکان حذف درخواست توسط کاربر</t>
-  </si>
-  <si>
     <t>ایجاد گالری عکس</t>
   </si>
   <si>
-    <t>امکان ارسال اطلاعیه</t>
-  </si>
-  <si>
-    <t>امکان ارسال اخبار</t>
-  </si>
-  <si>
     <t>اولویت</t>
   </si>
   <si>
@@ -60,17 +45,113 @@
     <t>امکان ثبت معامله انجام شده بین طرفین معامله</t>
   </si>
   <si>
-    <t>پروفایل کاربر ، شامل سابقه درخواست های هر کاربر و ویرایش کلمه عبور و سایر موارد</t>
-  </si>
-  <si>
     <t>داشبورد وبسایت با امکان نمایش درخواست های ثبت شده ، معاملات انجام شده ، تعداد بازدیدهای صورت گرفته</t>
+  </si>
+  <si>
+    <t>امکان نگهداری دارایی سهام و مدیریت آن با خرید و فروش سهام</t>
+  </si>
+  <si>
+    <t>تعریف کد سهامداری</t>
+  </si>
+  <si>
+    <t>عنوان برنامه ویرایش شود به تعاونی مصرف کارکنان بندر بوشهر</t>
+  </si>
+  <si>
+    <t>امکان ارتباط با اعضای هیات مدیره افزوده شود</t>
+  </si>
+  <si>
+    <t>افزوده یک نام کاربری با عنوان "تعاونی مصرف" که بتواند سهام افراد را خریداری یا فروش نماید</t>
+  </si>
+  <si>
+    <t>وضعیت</t>
+  </si>
+  <si>
+    <t>در صورتی که متقاضی خرید و فروش سهام در صف وجود داشته باشد ، سامانه آلارمی را در قسمت معاملات قابل انجام نمایش می دهد و پس از دعوت از خریدار و فروشنده معامله مابین آنها انجام می شود ، اما در نهایت جهت رسمی نمودن این معامله ، می بایست این امر توسط کاربر ارشد معاملات در سامانه تایید گردد ، تا در سبد سهام خریدار و فروشنده درج گردد</t>
+  </si>
+  <si>
+    <t>سابقه سفارش های ثبت شده در سامانه و سرنوشت این سفارش ها می بایست توسط کابر با دسترسی گزارش قابل مشاهده باشد</t>
+  </si>
+  <si>
+    <t>سابقه معاملات ثبت شده در سامانه می بایست توسط کابر با دسترسی گزارش قابل مشاهده باشد</t>
+  </si>
+  <si>
+    <t>مشاهده پورتفو کاربر</t>
+  </si>
+  <si>
+    <t>امکان ویرایش پروفایل کاربر</t>
+  </si>
+  <si>
+    <t>ویرایش مشخصات تماس و کلمه عبور</t>
+  </si>
+  <si>
+    <t>مشاهده سابقه درخواست ها و معاملات ثبت شده و مانده سهام</t>
+  </si>
+  <si>
+    <t>ثبت سرنوشت درخواست</t>
+  </si>
+  <si>
+    <t>درخواستی که توسط کاربر ثبت می شود ممکن لغو شود ، ویرایش شود و یا نهایتا منجر به معامله گردد.سابقه این وقایع می بایست برای هر درخواست ثبت گردد</t>
+  </si>
+  <si>
+    <t>یک کد سهامداری تعریف و مبنای تمامی جداول در سامانه گردد</t>
+  </si>
+  <si>
+    <t>1-انتخاب عکس های مناسب 2-طراحی و پیاده سازی کامپوننت نمایش گالری</t>
+  </si>
+  <si>
+    <t>پنل مدیریت اخبار</t>
+  </si>
+  <si>
+    <t>پنل مدیریت اطلاعیه ها</t>
+  </si>
+  <si>
+    <t>پنل مدیریت گالری عکس</t>
+  </si>
+  <si>
+    <t>پنل مدیریت عکس های کاروسل</t>
+  </si>
+  <si>
+    <t>اقدامات</t>
+  </si>
+  <si>
+    <t>خاتمه یافته</t>
+  </si>
+  <si>
+    <t>پنل نمایش اخبار</t>
+  </si>
+  <si>
+    <t>پنل نمایش اطلاعیه ها</t>
+  </si>
+  <si>
+    <t>پنل مدیریت درخواست های سهامدار</t>
+  </si>
+  <si>
+    <t>هدف ایجاد امکان مشاهده درخواست های ثبت شده توسط سهامدار و ویرایش آن می باشد</t>
+  </si>
+  <si>
+    <t>سرویس SMS جهت آلارم به ادمین ، خریدار و فروشنده</t>
+  </si>
+  <si>
+    <t>ارسال پیام کوتاه به ادمین معاملات در صورت وجود امکان معامله بین خریدار و فروشنده در صف</t>
+  </si>
+  <si>
+    <t>ارسال پیام کوتاه آلارم انجام معامله</t>
+  </si>
+  <si>
+    <t>مدیریت کلیم های کاربر</t>
+  </si>
+  <si>
+    <t>پنل مدیریت پروژه ها</t>
+  </si>
+  <si>
+    <t>پنل نمایش پروژه ها</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,22 +159,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -101,29 +184,269 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -139,17 +462,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C13" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:C13"/>
-  <sortState ref="A2:C13">
-    <sortCondition ref="A1:A13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:E27" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12">
+  <autoFilter ref="A1:E27"/>
+  <sortState ref="A2:E27">
+    <sortCondition ref="A1:A27"/>
   </sortState>
-  <tableColumns count="3">
-    <tableColumn id="1" name="اولویت" dataDxfId="0"/>
-    <tableColumn id="2" name="عنوان"/>
-    <tableColumn id="3" name="شرح"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="اولویت" dataDxfId="8"/>
+    <tableColumn id="2" name="وضعیت" dataDxfId="7"/>
+    <tableColumn id="3" name="عنوان" dataDxfId="9"/>
+    <tableColumn id="4" name="شرح" dataDxfId="11"/>
+    <tableColumn id="5" name="اقدامات" dataDxfId="10"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -416,135 +741,359 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="1"/>
-    <col min="2" max="2" width="82.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.15625" style="1"/>
+    <col min="2" max="2" width="11.89453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.3125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.5234375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="65.05078125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2">
+        <v>11</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2">
+        <v>13</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="B20" s="2"/>
+      <c r="C20" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2">
+        <v>14</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="2">
+        <v>15</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="2">
+        <v>16</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2">
+        <v>17</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2">
+        <v>18</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="2">
+        <v>19</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="2">
+        <v>20</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="3"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="4"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B27">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>$B$3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/pm/backlog.xlsx
+++ b/pm/backlog.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>ویوی ادمین با قابلیت نمایش نام و نام خانوادگی درخواست کننده</t>
   </si>
@@ -145,6 +146,15 @@
   </si>
   <si>
     <t>پنل نمایش پروژه ها</t>
+  </si>
+  <si>
+    <t>نیمه کاره</t>
+  </si>
+  <si>
+    <t>1-نمایش لیست درخواست های ثبت شده توسط کاربر2- افزودن دکمه امکان کاهش تعداد سهم یا لغو درخواست</t>
+  </si>
+  <si>
+    <t>جلوگیری از ثبت نام کد ملی و نام کاربری مشابه</t>
   </si>
 </sst>
 </file>
@@ -266,7 +276,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -288,6 +305,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -298,53 +322,11 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -352,7 +334,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
     </dxf>
     <dxf>
       <font>
@@ -376,7 +358,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -385,14 +367,6 @@
         </top>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
     </dxf>
     <dxf>
       <font>
@@ -416,7 +390,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -425,6 +399,23 @@
         </top>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -462,17 +453,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:E27" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12">
-  <autoFilter ref="A1:E27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:E28" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="A1:E28"/>
   <sortState ref="A2:E27">
     <sortCondition ref="A1:A27"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="اولویت" dataDxfId="8"/>
-    <tableColumn id="2" name="وضعیت" dataDxfId="7"/>
-    <tableColumn id="3" name="عنوان" dataDxfId="9"/>
-    <tableColumn id="4" name="شرح" dataDxfId="11"/>
-    <tableColumn id="5" name="اقدامات" dataDxfId="10"/>
+    <tableColumn id="1" name="اولویت" dataDxfId="10"/>
+    <tableColumn id="2" name="وضعیت" dataDxfId="9"/>
+    <tableColumn id="3" name="عنوان" dataDxfId="8"/>
+    <tableColumn id="4" name="شرح" dataDxfId="7"/>
+    <tableColumn id="5" name="اقدامات" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -741,11 +732,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A7" sqref="A7"/>
+      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -789,7 +780,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -819,14 +810,16 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="C5" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -837,7 +830,9 @@
       <c r="D6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
@@ -1086,10 +1081,27 @@
       <c r="D27" s="16"/>
       <c r="E27" s="4"/>
     </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="4"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B27">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="B2:B28">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>$B$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"نیمه کاره"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>"نیمه کاره"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pm/backlog.xlsx
+++ b/pm/backlog.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>ویوی ادمین با قابلیت نمایش نام و نام خانوادگی درخواست کننده</t>
   </si>
@@ -155,13 +154,28 @@
   </si>
   <si>
     <t>جلوگیری از ثبت نام کد ملی و نام کاربری مشابه</t>
+  </si>
+  <si>
+    <t>افزودن فرآیند تایید ثبت نام</t>
+  </si>
+  <si>
+    <t>پس از ثبت نام توسط کاربر نام کاربری او در حالت غیرفعال بوده و امکان ورود به سایت را نخواهد داشت.در این حالت لازم است پس از تایید مبلغ واریزی و تطبیق مدارک آپلود شده با اطلاعات ثبت نام و پس از اختصاص کد سهامداری توسط ادمین ، نام کاربری تایید و فعال شود</t>
+  </si>
+  <si>
+    <t>امکان آپلود مدارک به هنگام ثبت نام</t>
+  </si>
+  <si>
+    <t>در هنگام ثبت نام باید امکان ارسال تصویر شناسنامه ، کارت ملی ، حکم کارگزینی و یک عکس وجود داشته باشد</t>
+  </si>
+  <si>
+    <t>دریافت جدول سهامداران و پورتفو در قالب یک فایل اکسل</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +189,12 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -218,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -270,13 +290,19 @@
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="17">
     <dxf>
       <fill>
         <patternFill>
@@ -295,6 +321,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -318,13 +351,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -439,6 +465,30 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -453,8 +503,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:E28" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
-  <autoFilter ref="A1:E28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:E31" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="A1:E31"/>
   <sortState ref="A2:E27">
     <sortCondition ref="A1:A27"/>
   </sortState>
@@ -732,23 +782,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D6" sqref="D6"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.15625" style="1"/>
-    <col min="2" max="2" width="11.89453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.3125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="68.5234375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="65.05078125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="1"/>
+    <col min="2" max="2" width="11.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="65" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -765,7 +815,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -780,7 +830,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -793,7 +843,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -806,7 +856,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -819,7 +869,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -834,7 +884,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -847,7 +897,7 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -860,7 +910,7 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -871,7 +921,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -882,7 +932,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>6</v>
       </c>
@@ -895,7 +945,7 @@
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>7</v>
       </c>
@@ -906,7 +956,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>8</v>
       </c>
@@ -919,7 +969,7 @@
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>8</v>
       </c>
@@ -932,7 +982,7 @@
       </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>9</v>
       </c>
@@ -945,7 +995,7 @@
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>10</v>
       </c>
@@ -956,7 +1006,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>11</v>
       </c>
@@ -969,20 +1019,20 @@
       </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>12</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>13</v>
       </c>
@@ -993,7 +1043,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>14</v>
       </c>
@@ -1004,7 +1054,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>14</v>
       </c>
@@ -1015,7 +1065,7 @@
       <c r="D21" s="18"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>15</v>
       </c>
@@ -1026,7 +1076,7 @@
       <c r="D22" s="16"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>16</v>
       </c>
@@ -1037,7 +1087,7 @@
       <c r="D23" s="16"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>17</v>
       </c>
@@ -1048,7 +1098,7 @@
       <c r="D24" s="13"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>18</v>
       </c>
@@ -1059,7 +1109,7 @@
       <c r="D25" s="13"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>19</v>
       </c>
@@ -1070,7 +1120,7 @@
       <c r="D26" s="13"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>20</v>
       </c>
@@ -1081,7 +1131,7 @@
       <c r="D27" s="16"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="12" t="s">
@@ -1090,17 +1140,48 @@
       <c r="D28" s="13"/>
       <c r="E28" s="4"/>
     </row>
+    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="20"/>
+      <c r="E31" s="4"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B28">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+  <conditionalFormatting sqref="B2:B31">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>$B$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"نیمه کاره"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"نیمه کاره"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/pm/backlog.xlsx
+++ b/pm/backlog.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
+    <sheet name="ثبت معامله" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>ویوی ادمین با قابلیت نمایش نام و نام خانوادگی درخواست کننده</t>
   </si>
@@ -169,6 +170,15 @@
   </si>
   <si>
     <t>دریافت جدول سهامداران و پورتفو در قالب یک فایل اکسل</t>
+  </si>
+  <si>
+    <t>امکان ویرایش مبلغ در پنل مدیریت درخواست سهامدار</t>
+  </si>
+  <si>
+    <t>محاسبه و نمایش اولویت در صف</t>
+  </si>
+  <si>
+    <t>تبدیل تاریخ و ساعت میلادی به شمسی</t>
   </si>
 </sst>
 </file>
@@ -238,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -250,15 +260,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="2"/>
     </xf>
@@ -266,9 +270,6 @@
       <alignment horizontal="right" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -297,29 +298,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <fill>
         <patternFill>
@@ -503,17 +493,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:E31" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
-  <autoFilter ref="A1:E31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:E34" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" tableBorderDxfId="9">
+  <autoFilter ref="A1:E34"/>
   <sortState ref="A2:E27">
     <sortCondition ref="A1:A27"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="اولویت" dataDxfId="10"/>
-    <tableColumn id="2" name="وضعیت" dataDxfId="9"/>
-    <tableColumn id="3" name="عنوان" dataDxfId="8"/>
-    <tableColumn id="4" name="شرح" dataDxfId="7"/>
-    <tableColumn id="5" name="اقدامات" dataDxfId="6"/>
+    <tableColumn id="1" name="اولویت" dataDxfId="8"/>
+    <tableColumn id="2" name="وضعیت" dataDxfId="7"/>
+    <tableColumn id="3" name="عنوان" dataDxfId="6"/>
+    <tableColumn id="4" name="شرح" dataDxfId="5"/>
+    <tableColumn id="5" name="اقدامات" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -782,114 +772,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C32" sqref="C32"/>
+      <selection pane="topRight" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="1"/>
-    <col min="2" max="2" width="11.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="68.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="65" style="9" customWidth="1"/>
+    <col min="1" max="1" width="11.15625" style="1"/>
+    <col min="2" max="2" width="11.83984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.26171875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="65" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="6"/>
       <c r="E2" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -897,12 +889,12 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -910,34 +902,34 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
         <v>6</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -945,23 +937,23 @@
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2">
         <v>7</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2">
         <v>8</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -969,12 +961,12 @@
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
         <v>8</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -982,12 +974,12 @@
       </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2">
         <v>9</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -995,23 +987,23 @@
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2">
         <v>10</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2">
         <v>11</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -1019,169 +1011,196 @@
       </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2">
         <v>12</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2">
         <v>13</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2">
         <v>14</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="6"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2">
         <v>14</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="18"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2">
         <v>15</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="16"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2">
         <v>16</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="16"/>
+      <c r="D23" s="13"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2">
         <v>17</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="13"/>
+      <c r="D24" s="10"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2">
         <v>18</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="13"/>
+      <c r="D25" s="10"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2">
         <v>19</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="13"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2">
         <v>20</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="16"/>
+      <c r="D27" s="13"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="13"/>
+      <c r="D28" s="10"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="17" t="s">
         <v>46</v>
       </c>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="17" t="s">
         <v>48</v>
       </c>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="20"/>
+      <c r="D31" s="17"/>
       <c r="E31" s="4"/>
     </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="17"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="17"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="4"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B31">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+  <conditionalFormatting sqref="B2:B34">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>$B$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"نیمه کاره"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"نیمه کاره"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1191,4 +1210,18 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/pm/backlog.xlsx
+++ b/pm/backlog.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
   <si>
     <t>ویوی ادمین با قابلیت نمایش نام و نام خانوادگی درخواست کننده</t>
   </si>
@@ -61,9 +61,6 @@
     <t>امکان ارتباط با اعضای هیات مدیره افزوده شود</t>
   </si>
   <si>
-    <t>افزوده یک نام کاربری با عنوان "تعاونی مصرف" که بتواند سهام افراد را خریداری یا فروش نماید</t>
-  </si>
-  <si>
     <t>وضعیت</t>
   </si>
   <si>
@@ -172,13 +169,34 @@
     <t>دریافت جدول سهامداران و پورتفو در قالب یک فایل اکسل</t>
   </si>
   <si>
-    <t>امکان ویرایش مبلغ در پنل مدیریت درخواست سهامدار</t>
-  </si>
-  <si>
     <t>محاسبه و نمایش اولویت در صف</t>
   </si>
   <si>
     <t>تبدیل تاریخ و ساعت میلادی به شمسی</t>
+  </si>
+  <si>
+    <t>محاسبه تعداد سهم درخواستی بر اساس مبلغ و ارزش روز سهم</t>
+  </si>
+  <si>
+    <t>در پنل ثبت درخواست ، کاربر هم بتواند با تعیین تعداد سهم و هم تعیین مبلغ سرمایه درخواست خود را ثبت نماید.در حالت تعیین مبلغ سرمایه سامانه باید تعداد سهم را بر اساس ارزش روز سهم محاسبه نماید</t>
+  </si>
+  <si>
+    <t>حدف فیلد ارزش سهم در تمامی جداول و نماهایی که مورد نیاز نیست</t>
+  </si>
+  <si>
+    <t>جلوگیری از ثبت همزمان درخواست خرید و فروش یک شخص در اول صف</t>
+  </si>
+  <si>
+    <t>کنترل دارایی سهام به هنگام ثبت درخواست فروش</t>
+  </si>
+  <si>
+    <t>بهنگام ثبت درخواست فروش می بایست ، تعداد سهام مورد نظر با پورتفو سهامدار کنترل شود</t>
+  </si>
+  <si>
+    <t>یک سهامدار در صورتی که قبلا درخواست خرید یا فروشی ر اثبت کرده باشد نمی تواند درخواست فروش یا خرید ثبت نماید</t>
+  </si>
+  <si>
+    <t>افزودن یک نام کاربری با عنوان "تعاونی مصرف" که بتواند سهام افراد را خریداری یا فروش نماید</t>
   </si>
 </sst>
 </file>
@@ -309,7 +327,24 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -493,17 +528,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:E34" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" tableBorderDxfId="9">
-  <autoFilter ref="A1:E34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:E37" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="A1:E37"/>
   <sortState ref="A2:E27">
     <sortCondition ref="A1:A27"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="اولویت" dataDxfId="8"/>
-    <tableColumn id="2" name="وضعیت" dataDxfId="7"/>
-    <tableColumn id="3" name="عنوان" dataDxfId="6"/>
-    <tableColumn id="4" name="شرح" dataDxfId="5"/>
-    <tableColumn id="5" name="اقدامات" dataDxfId="4"/>
+    <tableColumn id="1" name="اولویت" dataDxfId="10"/>
+    <tableColumn id="2" name="وضعیت" dataDxfId="9"/>
+    <tableColumn id="3" name="عنوان" dataDxfId="8"/>
+    <tableColumn id="4" name="شرح" dataDxfId="7"/>
+    <tableColumn id="5" name="اقدامات" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -772,11 +807,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C35" sqref="C35"/>
+      <selection pane="topRight" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -793,7 +828,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>5</v>
@@ -802,7 +837,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -810,14 +845,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -825,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>0</v>
@@ -838,7 +873,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>11</v>
@@ -851,10 +886,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="4"/>
@@ -864,28 +899,30 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="E6" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C7" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="4"/>
     </row>
@@ -893,12 +930,14 @@
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="4"/>
     </row>
@@ -908,7 +947,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="8" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -917,7 +956,9 @@
       <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C10" s="8" t="s">
         <v>9</v>
       </c>
@@ -930,10 +971,10 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="E11" s="4"/>
     </row>
@@ -943,7 +984,7 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="4"/>
@@ -957,7 +998,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="4"/>
     </row>
@@ -967,10 +1008,10 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="4"/>
     </row>
@@ -983,7 +1024,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" s="4"/>
     </row>
@@ -1004,10 +1045,10 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="E17" s="4"/>
     </row>
@@ -1017,10 +1058,10 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" s="8"/>
     </row>
@@ -1030,7 +1071,7 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -1041,7 +1082,7 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="4"/>
@@ -1052,7 +1093,7 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="4"/>
@@ -1063,7 +1104,7 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="4"/>
@@ -1074,7 +1115,7 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="4"/>
@@ -1085,7 +1126,7 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="4"/>
@@ -1096,7 +1137,7 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="4"/>
@@ -1107,7 +1148,7 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="4"/>
@@ -1127,7 +1168,7 @@
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="4"/>
@@ -1136,10 +1177,10 @@
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="17" t="s">
         <v>45</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>46</v>
       </c>
       <c r="E29" s="4"/>
     </row>
@@ -1147,10 +1188,10 @@
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="17" t="s">
         <v>47</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>48</v>
       </c>
       <c r="E30" s="4"/>
     </row>
@@ -1158,16 +1199,16 @@
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="4"/>
@@ -1176,7 +1217,7 @@
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="4"/>
@@ -1185,22 +1226,55 @@
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="4"/>
     </row>
+    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="4"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B34">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+  <conditionalFormatting sqref="B2:B37">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>$B$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"نیمه کاره"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"نیمه کاره"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/pm/backlog.xlsx
+++ b/pm/backlog.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
   <si>
     <t>ویوی ادمین با قابلیت نمایش نام و نام خانوادگی درخواست کننده</t>
   </si>
@@ -136,9 +136,6 @@
     <t>ارسال پیام کوتاه آلارم انجام معامله</t>
   </si>
   <si>
-    <t>مدیریت کلیم های کاربر</t>
-  </si>
-  <si>
     <t>پنل مدیریت پروژه ها</t>
   </si>
   <si>
@@ -197,6 +194,24 @@
   </si>
   <si>
     <t>افزودن یک نام کاربری با عنوان "تعاونی مصرف" که بتواند سهام افراد را خریداری یا فروش نماید</t>
+  </si>
+  <si>
+    <t>انتشار</t>
+  </si>
+  <si>
+    <t>ایجاد جدول پورتفو به هنگام ثبت نام</t>
+  </si>
+  <si>
+    <t>ایجاد پنل مدیریت کاربران</t>
+  </si>
+  <si>
+    <t>کاربر ادمین سایت به کمک این فرم می تواند کاربران را فعال یا غیرفعال کند.کلیم های کاربر را مدیریت نماید.کلمه عبور آنها را ویرایش نماید</t>
+  </si>
+  <si>
+    <t>انجام شده</t>
+  </si>
+  <si>
+    <t>هش کردن جدول کلیم و کلیم های کاربر</t>
   </si>
 </sst>
 </file>
@@ -305,12 +320,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
@@ -322,19 +331,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -342,6 +350,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -370,14 +385,13 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -490,30 +504,6 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -528,14 +518,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:E37" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
-  <autoFilter ref="A1:E37"/>
-  <sortState ref="A2:E27">
-    <sortCondition ref="A1:A27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:F39" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="A1:F39">
+    <filterColumn colId="1">
+      <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A8:F20">
+    <sortCondition ref="C2:C37"/>
+    <sortCondition ref="A2:A37"/>
   </sortState>
-  <tableColumns count="5">
+  <tableColumns count="6">
     <tableColumn id="1" name="اولویت" dataDxfId="10"/>
     <tableColumn id="2" name="وضعیت" dataDxfId="9"/>
+    <tableColumn id="6" name="انتشار" dataDxfId="5"/>
     <tableColumn id="3" name="عنوان" dataDxfId="8"/>
     <tableColumn id="4" name="شرح" dataDxfId="7"/>
     <tableColumn id="5" name="اقدامات" dataDxfId="6"/>
@@ -807,474 +808,631 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B27" sqref="B27"/>
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="11.15625" style="1"/>
-    <col min="2" max="2" width="11.83984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.26171875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="68.578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="65" style="7" customWidth="1"/>
+    <col min="2" max="3" width="11.83984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.26171875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="65" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="57.6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>33</v>
+      <c r="C6" s="2">
+        <v>1</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2">
         <v>7</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2">
+        <v>9</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2">
+        <v>10</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="2">
+        <v>11</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2">
+        <v>12</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="2">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2">
+        <v>2</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2">
+        <v>8</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2">
+        <v>2</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2">
+        <v>9</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2">
+        <v>2</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="2">
+        <v>3</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="2">
+        <v>13</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2">
+        <v>2</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="2">
         <v>14</v>
       </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2">
-        <v>7</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="11" t="s">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2">
+        <v>2</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="2">
-        <v>8</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="E28" s="10"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="2">
+        <v>14</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2">
+        <v>2</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="2">
         <v>20</v>
       </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="2">
-        <v>9</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="8" t="s">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2">
         <v>2</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2">
-        <v>10</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="2">
-        <v>11</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="2">
+      <c r="D30" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="2">
-        <v>13</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="2">
-        <v>14</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="2">
-        <v>14</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="2">
-        <v>15</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="2">
-        <v>16</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="2">
-        <v>17</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="2">
-        <v>18</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="2">
-        <v>19</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="2">
-        <v>20</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E30" s="13"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="2">
+        <v>2</v>
+      </c>
+      <c r="D31" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="E31" s="15"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="2">
+        <v>2</v>
+      </c>
+      <c r="D32" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="2"/>
+      <c r="E32" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="2">
+        <v>12</v>
+      </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="2"/>
+      <c r="C33" s="2">
+        <v>3</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="2">
+        <v>15</v>
+      </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="2"/>
+      <c r="C34" s="2">
+        <v>3</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="2">
+        <v>16</v>
+      </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="2"/>
+      <c r="C35" s="2">
+        <v>3</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="13"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="2">
+        <v>17</v>
+      </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="2"/>
+      <c r="C36" s="2">
+        <v>3</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="2">
+        <v>18</v>
+      </c>
       <c r="B37" s="2"/>
-      <c r="C37" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" s="4"/>
+      <c r="C37" s="2">
+        <v>3</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="2">
+        <v>19</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2">
+        <v>3</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2">
+        <v>3</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" s="15"/>
+      <c r="F39" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B37">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+  <conditionalFormatting sqref="B2:C39">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"نیمه کاره"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>$B$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
-      <formula>"نیمه کاره"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+  <conditionalFormatting sqref="B2:C2">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"نیمه کاره"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/pm/backlog.xlsx
+++ b/pm/backlog.xlsx
@@ -342,57 +342,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -477,6 +427,15 @@
     <dxf>
       <fill>
         <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -504,6 +463,30 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -518,7 +501,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:F39" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:F39" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="A1:F39">
     <filterColumn colId="1">
       <filters blank="1"/>
@@ -534,12 +517,12 @@
     <sortCondition ref="A2:A37"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="اولویت" dataDxfId="10"/>
-    <tableColumn id="2" name="وضعیت" dataDxfId="9"/>
-    <tableColumn id="6" name="انتشار" dataDxfId="5"/>
-    <tableColumn id="3" name="عنوان" dataDxfId="8"/>
-    <tableColumn id="4" name="شرح" dataDxfId="7"/>
-    <tableColumn id="5" name="اقدامات" dataDxfId="6"/>
+    <tableColumn id="1" name="اولویت" dataDxfId="5"/>
+    <tableColumn id="2" name="وضعیت" dataDxfId="4"/>
+    <tableColumn id="6" name="انتشار" dataDxfId="3"/>
+    <tableColumn id="3" name="عنوان" dataDxfId="2"/>
+    <tableColumn id="4" name="شرح" dataDxfId="1"/>
+    <tableColumn id="5" name="اقدامات" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -812,7 +795,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B11" sqref="B11"/>
+      <selection pane="topRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1424,15 +1407,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:C39">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"نیمه کاره"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"نیمه کاره"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/pm/backlog.xlsx
+++ b/pm/backlog.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="67">
   <si>
     <t>ویوی ادمین با قابلیت نمایش نام و نام خانوادگی درخواست کننده</t>
   </si>
@@ -212,6 +212,15 @@
   </si>
   <si>
     <t>هش کردن جدول کلیم و کلیم های کاربر</t>
+  </si>
+  <si>
+    <t>کنترل کلمه های عبور بهنگام تغییر کلمه عبور</t>
+  </si>
+  <si>
+    <t>فعال کردن کنترل claim های کاربر</t>
+  </si>
+  <si>
+    <t>سامانه بر اساس claim های کاربر دسترسی به بخش های مختلف را مدیریت می کند</t>
   </si>
 </sst>
 </file>
@@ -342,7 +351,48 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -463,30 +513,6 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -501,8 +527,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:F39" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
-  <autoFilter ref="A1:F39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:F42" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="A1:F42">
     <filterColumn colId="1">
       <filters blank="1"/>
     </filterColumn>
@@ -517,12 +543,12 @@
     <sortCondition ref="A2:A37"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="اولویت" dataDxfId="5"/>
-    <tableColumn id="2" name="وضعیت" dataDxfId="4"/>
-    <tableColumn id="6" name="انتشار" dataDxfId="3"/>
-    <tableColumn id="3" name="عنوان" dataDxfId="2"/>
-    <tableColumn id="4" name="شرح" dataDxfId="1"/>
-    <tableColumn id="5" name="اقدامات" dataDxfId="0"/>
+    <tableColumn id="1" name="اولویت" dataDxfId="10"/>
+    <tableColumn id="2" name="وضعیت" dataDxfId="9"/>
+    <tableColumn id="6" name="انتشار" dataDxfId="8"/>
+    <tableColumn id="3" name="عنوان" dataDxfId="7"/>
+    <tableColumn id="4" name="شرح" dataDxfId="6"/>
+    <tableColumn id="5" name="اقدامات" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -791,11 +817,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D16" sqref="D16"/>
+      <selection pane="topRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -981,11 +1007,13 @@
       <c r="E10" s="15"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
         <v>2</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
@@ -997,11 +1025,13 @@
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2">
         <v>3</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="C12" s="2">
         <v>1</v>
       </c>
@@ -1105,11 +1135,13 @@
       </c>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2">
         <v>10</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="C19" s="2">
         <v>1</v>
       </c>
@@ -1119,138 +1151,140 @@
       <c r="E19" s="19"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2">
         <v>1</v>
       </c>
-      <c r="D20" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>46</v>
+      <c r="D20" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2">
         <v>1</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="4"/>
+      <c r="D21" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>46</v>
+      </c>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="2"/>
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="2">
+        <v>12</v>
+      </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="2">
-        <v>6</v>
-      </c>
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2">
-        <v>2</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>22</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="19"/>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2">
         <v>2</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2">
         <v>2</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2">
-        <v>3</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" s="2">
         <v>2</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="10"/>
+      <c r="D26" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2">
-        <v>13</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="C27" s="2">
         <v>2</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="13"/>
+      <c r="D27" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="10"/>
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2">
         <v>2</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="10"/>
+      <c r="D28" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="13"/>
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -1261,161 +1295,195 @@
       <c r="C29" s="2">
         <v>2</v>
       </c>
-      <c r="D29" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="13"/>
+      <c r="D29" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="10"/>
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2">
         <v>2</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="2"/>
+      <c r="A31" s="2">
+        <v>20</v>
+      </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2">
         <v>2</v>
       </c>
-      <c r="D31" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="15"/>
+      <c r="D31" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="13"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2">
         <v>2</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>56</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E32" s="15"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="2">
-        <v>12</v>
-      </c>
+    <row r="33" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2">
-        <v>3</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F33" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2">
         <v>3</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2">
         <v>3</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2">
         <v>3</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" s="10"/>
+      <c r="D36" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="13"/>
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2">
         <v>3</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2">
         <v>3</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="2"/>
+      <c r="A39" s="2">
+        <v>19</v>
+      </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2">
         <v>3</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2">
+        <v>3</v>
+      </c>
+      <c r="D40" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E39" s="15"/>
-      <c r="F39" s="4"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="15"/>
+      <c r="F42" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:C39">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+  <conditionalFormatting sqref="B2:C42">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"نیمه کاره"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"نیمه کاره"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/pm/backlog.xlsx
+++ b/pm/backlog.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
   <si>
     <t>ویوی ادمین با قابلیت نمایش نام و نام خانوادگی درخواست کننده</t>
   </si>
@@ -221,6 +221,30 @@
   </si>
   <si>
     <t>سامانه بر اساس claim های کاربر دسترسی به بخش های مختلف را مدیریت می کند</t>
+  </si>
+  <si>
+    <t>رفع اشکال خطا نامشخص بودن username پس از ثبت نام اولیه در وب سایت</t>
+  </si>
+  <si>
+    <t>وقتی کاربر ثبت نام می کند  و به صورت اتوماتیک وارد سایت می شود سامانه نمیتواند username او را شناسایی کند ، بعنوان مثال در فرم دارایی سهام و معاملات خطا می دهد</t>
+  </si>
+  <si>
+    <t>افزودن ستون نوع معامله (خرید  / فروش) به گرید معاملات در فرم دارایی و سابقه معاملات</t>
+  </si>
+  <si>
+    <t>نمایش تعداد سهام معامله شده و باقی مانده در فرم ثبت درخواست خرید و فروش</t>
+  </si>
+  <si>
+    <t>افزودن تکرار کلمه عبور به فرم ثبت نام</t>
+  </si>
+  <si>
+    <t>تصحیح ساعت ثبت درخواست</t>
+  </si>
+  <si>
+    <t>ساعت ثبت درخواست ، جهانی است و باید تبدیل به ساعت ایران شود</t>
+  </si>
+  <si>
+    <t>غیر فعال کردن آیتم های منو بر اساس claim های کاربر</t>
   </si>
 </sst>
 </file>
@@ -290,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -320,9 +344,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
@@ -351,14 +372,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -513,6 +527,30 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -527,8 +565,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:F42" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
-  <autoFilter ref="A1:F42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:F48" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="A1:F48">
     <filterColumn colId="1">
       <filters blank="1"/>
     </filterColumn>
@@ -538,17 +576,16 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A8:F20">
-    <sortCondition ref="C2:C37"/>
-    <sortCondition ref="A2:A37"/>
+  <sortState ref="A13:F47">
+    <sortCondition ref="A1:A47"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="اولویت" dataDxfId="10"/>
-    <tableColumn id="2" name="وضعیت" dataDxfId="9"/>
-    <tableColumn id="6" name="انتشار" dataDxfId="8"/>
-    <tableColumn id="3" name="عنوان" dataDxfId="7"/>
-    <tableColumn id="4" name="شرح" dataDxfId="6"/>
-    <tableColumn id="5" name="اقدامات" dataDxfId="5"/>
+    <tableColumn id="1" name="اولویت" dataDxfId="9"/>
+    <tableColumn id="2" name="وضعیت" dataDxfId="8"/>
+    <tableColumn id="6" name="انتشار" dataDxfId="7"/>
+    <tableColumn id="3" name="عنوان" dataDxfId="6"/>
+    <tableColumn id="4" name="شرح" dataDxfId="5"/>
+    <tableColumn id="5" name="اقدامات" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -817,11 +854,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E21" sqref="E21"/>
+      <selection pane="topRight" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -843,10 +880,10 @@
       <c r="C1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="8" t="s">
@@ -1001,10 +1038,10 @@
       <c r="C10" s="2">
         <v>1</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="15"/>
+      <c r="E10" s="14"/>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -1045,93 +1082,99 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="C13" s="2">
         <v>1</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="6"/>
+      <c r="D13" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>66</v>
+      </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
         <v>5</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="C14" s="2">
         <v>1</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="18" t="s">
         <v>55</v>
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2">
         <v>1</v>
       </c>
-      <c r="D15" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>44</v>
+      <c r="D15" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2">
         <v>1</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>51</v>
+      <c r="D16" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>73</v>
       </c>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2">
         <v>1</v>
       </c>
-      <c r="D17" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="19"/>
+      <c r="D17" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="18"/>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2">
         <v>1</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>61</v>
+      <c r="D18" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="F18" s="4"/>
     </row>
@@ -1145,56 +1188,54 @@
       <c r="C19" s="2">
         <v>1</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="19"/>
+      <c r="E19" s="18"/>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2">
         <v>1</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>66</v>
-      </c>
+      <c r="D20" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="10"/>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2">
         <v>1</v>
       </c>
-      <c r="D21" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>46</v>
-      </c>
+      <c r="D21" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="18"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2">
         <v>1</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="4"/>
+      <c r="D22" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>44</v>
+      </c>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -1203,10 +1244,10 @@
       <c r="C23" s="2">
         <v>1.5</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="19"/>
+      <c r="E23" s="18"/>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -1217,10 +1258,10 @@
       <c r="C24" s="2">
         <v>2</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="12" t="s">
         <v>22</v>
       </c>
       <c r="F24" s="4"/>
@@ -1233,10 +1274,10 @@
       <c r="C25" s="2">
         <v>2</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="13" t="s">
+      <c r="D25" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F25" s="4"/>
@@ -1249,10 +1290,10 @@
       <c r="C26" s="2">
         <v>2</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="12" t="s">
         <v>16</v>
       </c>
       <c r="F26" s="4"/>
@@ -1281,10 +1322,10 @@
       <c r="C28" s="2">
         <v>2</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="13"/>
+      <c r="E28" s="12"/>
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -1309,10 +1350,10 @@
       <c r="C30" s="2">
         <v>2</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="13"/>
+      <c r="E30" s="12"/>
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -1323,10 +1364,10 @@
       <c r="C31" s="2">
         <v>2</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="13"/>
+      <c r="E31" s="12"/>
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -1335,10 +1376,10 @@
       <c r="C32" s="2">
         <v>2</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14"/>
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -1347,10 +1388,10 @@
       <c r="C33" s="2">
         <v>2</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="14" t="s">
         <v>56</v>
       </c>
       <c r="F33" s="4"/>
@@ -1363,10 +1404,10 @@
       <c r="C34" s="2">
         <v>3</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F34" s="8"/>
@@ -1379,10 +1420,10 @@
       <c r="C35" s="2">
         <v>3</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="13"/>
+      <c r="E35" s="12"/>
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -1393,10 +1434,10 @@
       <c r="C36" s="2">
         <v>3</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="13"/>
+      <c r="E36" s="12"/>
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -1447,18 +1488,18 @@
       <c r="C40" s="2">
         <v>3</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E40" s="15"/>
+      <c r="E40" s="14"/>
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="15"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="14"/>
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -1467,23 +1508,107 @@
       <c r="C42" s="2">
         <v>1.5</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E42" s="15"/>
+      <c r="E42" s="14"/>
       <c r="F42" s="4"/>
     </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="2">
+        <v>8</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" s="14"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="14"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="2">
+        <v>9</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="2">
+        <v>10</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2">
+        <v>1</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="2">
+        <v>11</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="12"/>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2">
+        <v>1</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48" s="14"/>
+      <c r="F48" s="4"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:C42">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="B2:C48">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"نیمه کاره"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"نیمه کاره"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/pm/backlog.xlsx
+++ b/pm/backlog.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
   <si>
     <t>ویوی ادمین با قابلیت نمایش نام و نام خانوادگی درخواست کننده</t>
   </si>
@@ -208,9 +208,6 @@
     <t>کاربر ادمین سایت به کمک این فرم می تواند کاربران را فعال یا غیرفعال کند.کلیم های کاربر را مدیریت نماید.کلمه عبور آنها را ویرایش نماید</t>
   </si>
   <si>
-    <t>انجام شده</t>
-  </si>
-  <si>
     <t>هش کردن جدول کلیم و کلیم های کاربر</t>
   </si>
   <si>
@@ -245,6 +242,27 @@
   </si>
   <si>
     <t>غیر فعال کردن آیتم های منو بر اساس claim های کاربر</t>
+  </si>
+  <si>
+    <t>جلوگیری از انجام معامله خرید و فروش بین یک نفر</t>
+  </si>
+  <si>
+    <t>در صورتی که سهامدار همزمان هم درخواست خرید و هم درخواست فروش ثبت نماید ممکن است در هنگام معامله خریدار و فروشنده یک نفر شوند که عملا ایجاد خطا و اشکال می کند</t>
+  </si>
+  <si>
+    <t>پس از ثبت نام اولیه کاربر ، مدیر ثبت نام می بایست بتواند claim کاربر را تعیین نماید این کار می تواند در هنگام فعال کردن کاربر ثبت نام کرده انجام شود</t>
+  </si>
+  <si>
+    <t>ایجاد داکر ایمیج</t>
+  </si>
+  <si>
+    <t>رفع اشکال فرم ویرایش پروفایل</t>
+  </si>
+  <si>
+    <t>دکمه ثبت تغییرات در این فرم همیشه غیرفعال می باشد</t>
+  </si>
+  <si>
+    <t>افزودن چک کردن یکسان بودن کلمه عبور و تکرار آن</t>
   </si>
 </sst>
 </file>
@@ -314,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -368,11 +386,65 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -565,8 +637,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:F48" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="A1:F48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:F53" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:F53">
     <filterColumn colId="1">
       <filters blank="1"/>
     </filterColumn>
@@ -576,16 +648,16 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A13:F47">
-    <sortCondition ref="A1:A47"/>
+  <sortState ref="A21:F53">
+    <sortCondition ref="A1:A53"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="اولویت" dataDxfId="9"/>
-    <tableColumn id="2" name="وضعیت" dataDxfId="8"/>
-    <tableColumn id="6" name="انتشار" dataDxfId="7"/>
-    <tableColumn id="3" name="عنوان" dataDxfId="6"/>
-    <tableColumn id="4" name="شرح" dataDxfId="5"/>
-    <tableColumn id="5" name="اقدامات" dataDxfId="4"/>
+    <tableColumn id="1" name="اولویت" dataDxfId="15"/>
+    <tableColumn id="2" name="وضعیت" dataDxfId="14"/>
+    <tableColumn id="6" name="انتشار" dataDxfId="13"/>
+    <tableColumn id="3" name="عنوان" dataDxfId="12"/>
+    <tableColumn id="4" name="شرح" dataDxfId="11"/>
+    <tableColumn id="5" name="اقدامات" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -854,11 +926,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D49" sqref="D49"/>
+      <selection pane="topRight" activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1001,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -1033,7 +1105,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -1049,7 +1121,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -1067,7 +1139,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -1080,21 +1152,21 @@
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2">
         <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
       </c>
       <c r="D13" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>65</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>66</v>
       </c>
       <c r="F13" s="4"/>
     </row>
@@ -1103,7 +1175,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -1116,66 +1188,72 @@
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2">
         <v>2</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C15" s="2">
         <v>1</v>
       </c>
       <c r="D15" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>68</v>
-      </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2">
         <v>2</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C16" s="2">
         <v>1</v>
       </c>
       <c r="D16" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="18" t="s">
-        <v>73</v>
-      </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2">
-        <v>3</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C17" s="2">
         <v>1</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2">
-        <v>4</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C18" s="2">
         <v>1</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>51</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E18" s="18"/>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -1183,7 +1261,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -1194,48 +1272,52 @@
       <c r="E19" s="18"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" s="1" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2">
-        <v>5</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C20" s="2">
         <v>1</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="10"/>
+      <c r="D20" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2">
         <v>1</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="18"/>
+        <v>78</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>79</v>
+      </c>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2">
         <v>1</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>44</v>
-      </c>
+      <c r="D22" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="6"/>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -1489,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E40" s="14"/>
       <c r="F40" s="4"/>
@@ -1509,21 +1591,21 @@
         <v>1.5</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E42" s="14"/>
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2">
         <v>1</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E43" s="14"/>
       <c r="F43" s="4"/>
@@ -1535,80 +1617,156 @@
         <v>1.5</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E44" s="14"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2">
         <v>1</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>61</v>
-      </c>
+      <c r="D45" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" s="14"/>
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2">
         <v>1</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2">
         <v>1</v>
       </c>
-      <c r="D47" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="12"/>
+      <c r="D47" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="14"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="2"/>
+    <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="2">
+        <v>7</v>
+      </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2">
         <v>1</v>
       </c>
-      <c r="D48" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E48" s="14"/>
+      <c r="D48" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="F48" s="4"/>
     </row>
+    <row r="49" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="2">
+        <v>8</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2">
+        <v>1</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="2">
+        <v>10</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="12"/>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="2">
+        <v>9</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2">
+        <v>1</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E51" s="14"/>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="2">
+        <v>10</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="2">
+        <v>11</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2">
+        <v>1</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E53" s="14"/>
+      <c r="F53" s="4"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:C48">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+  <conditionalFormatting sqref="B2:C53">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>"نیمه کاره"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>"نیمه کاره"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/pm/backlog.xlsx
+++ b/pm/backlog.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
   <si>
     <t>ویوی ادمین با قابلیت نمایش نام و نام خانوادگی درخواست کننده</t>
   </si>
@@ -393,92 +393,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -637,7 +552,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:F53" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:F53" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="A1:F53">
     <filterColumn colId="1">
       <filters blank="1"/>
@@ -652,12 +567,12 @@
     <sortCondition ref="A1:A53"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="اولویت" dataDxfId="15"/>
-    <tableColumn id="2" name="وضعیت" dataDxfId="14"/>
-    <tableColumn id="6" name="انتشار" dataDxfId="13"/>
-    <tableColumn id="3" name="عنوان" dataDxfId="12"/>
-    <tableColumn id="4" name="شرح" dataDxfId="11"/>
-    <tableColumn id="5" name="اقدامات" dataDxfId="10"/>
+    <tableColumn id="1" name="اولویت" dataDxfId="5"/>
+    <tableColumn id="2" name="وضعیت" dataDxfId="4"/>
+    <tableColumn id="6" name="انتشار" dataDxfId="3"/>
+    <tableColumn id="3" name="عنوان" dataDxfId="2"/>
+    <tableColumn id="4" name="شرح" dataDxfId="1"/>
+    <tableColumn id="5" name="اقدامات" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -930,7 +845,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A47" sqref="A47"/>
+      <selection pane="topRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1294,7 +1209,9 @@
       <c r="A21" s="2">
         <v>1</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C21" s="2">
         <v>1</v>
       </c>
@@ -1758,15 +1675,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:C53">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"نیمه کاره"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"نیمه کاره"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/pm/backlog.xlsx
+++ b/pm/backlog.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="81">
   <si>
     <t>ویوی ادمین با قابلیت نمایش نام و نام خانوادگی درخواست کننده</t>
   </si>
@@ -845,7 +845,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B22" sqref="B22"/>
+      <selection pane="topRight" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1227,7 +1227,9 @@
       <c r="A22" s="2">
         <v>2</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C22" s="2">
         <v>1</v>
       </c>

--- a/pm/backlog.xlsx
+++ b/pm/backlog.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
   <si>
     <t>ویوی ادمین با قابلیت نمایش نام و نام خانوادگی درخواست کننده</t>
   </si>
@@ -845,7 +845,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B43" sqref="B43"/>
+      <selection pane="topRight" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2">
         <v>2</v>
       </c>
@@ -1519,7 +1519,9 @@
       <c r="A43" s="2">
         <v>3</v>
       </c>
-      <c r="B43" s="2"/>
+      <c r="B43" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C43" s="2">
         <v>1</v>
       </c>
@@ -1545,7 +1547,9 @@
       <c r="A45" s="2">
         <v>4</v>
       </c>
-      <c r="B45" s="2"/>
+      <c r="B45" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C45" s="2">
         <v>1</v>
       </c>
@@ -1661,11 +1665,13 @@
       </c>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="2">
         <v>11</v>
       </c>
-      <c r="B53" s="2"/>
+      <c r="B53" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C53" s="2">
         <v>1</v>
       </c>

--- a/pm/backlog.xlsx
+++ b/pm/backlog.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="83">
   <si>
     <t>ویوی ادمین با قابلیت نمایش نام و نام خانوادگی درخواست کننده</t>
   </si>
@@ -263,6 +263,12 @@
   </si>
   <si>
     <t>افزودن چک کردن یکسان بودن کلمه عبور و تکرار آن</t>
+  </si>
+  <si>
+    <t>چک کردن کلمه عبور قبلی بهنگام تغییر کلمه عبور</t>
+  </si>
+  <si>
+    <t>قبل از تغییر کلمه عبور می بایست کلمه عبور قبلی را چک کنیم</t>
   </si>
 </sst>
 </file>
@@ -393,7 +399,24 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -552,8 +575,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:F53" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
-  <autoFilter ref="A1:F53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:F54" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="A1:F54">
     <filterColumn colId="1">
       <filters blank="1"/>
     </filterColumn>
@@ -567,12 +590,12 @@
     <sortCondition ref="A1:A53"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="اولویت" dataDxfId="5"/>
-    <tableColumn id="2" name="وضعیت" dataDxfId="4"/>
-    <tableColumn id="6" name="انتشار" dataDxfId="3"/>
-    <tableColumn id="3" name="عنوان" dataDxfId="2"/>
-    <tableColumn id="4" name="شرح" dataDxfId="1"/>
-    <tableColumn id="5" name="اقدامات" dataDxfId="0"/>
+    <tableColumn id="1" name="اولویت" dataDxfId="7"/>
+    <tableColumn id="2" name="وضعیت" dataDxfId="6"/>
+    <tableColumn id="6" name="انتشار" dataDxfId="5"/>
+    <tableColumn id="3" name="عنوان" dataDxfId="4"/>
+    <tableColumn id="4" name="شرح" dataDxfId="3"/>
+    <tableColumn id="5" name="اقدامات" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -841,11 +864,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B46" sqref="B46"/>
+      <pane xSplit="4" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1515,7 +1538,7 @@
       <c r="E42" s="14"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2">
         <v>3</v>
       </c>
@@ -1543,7 +1566,7 @@
       <c r="E44" s="14"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2">
         <v>4</v>
       </c>
@@ -1681,17 +1704,33 @@
       <c r="E53" s="14"/>
       <c r="F53" s="4"/>
     </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="2">
+        <v>11</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2">
+        <v>1</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F54" s="4"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:C53">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+  <conditionalFormatting sqref="B2:C54">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"نیمه کاره"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"نیمه کاره"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/pm/backlog.xlsx
+++ b/pm/backlog.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="89">
   <si>
     <t>ویوی ادمین با قابلیت نمایش نام و نام خانوادگی درخواست کننده</t>
   </si>
@@ -269,6 +269,24 @@
   </si>
   <si>
     <t>قبل از تغییر کلمه عبور می بایست کلمه عبور قبلی را چک کنیم</t>
+  </si>
+  <si>
+    <t>ایجاد فرم ویرایش قیمت روز سهم</t>
+  </si>
+  <si>
+    <t>گرفتن تایید از کاربر قبل از لغو تا تغییر تعداد سهام درخواست</t>
+  </si>
+  <si>
+    <t>در فرم مدیریت درخواست های کاربر قبل از لغو یا تغییر تعداد از کاربر تایید گرفته شود</t>
+  </si>
+  <si>
+    <t>تاریخ هایی که بصورت اتوماتیک ثبت می شوند مجددا بررسی شوند</t>
+  </si>
+  <si>
+    <t>بررسی مجدد صحت عملکرد ثبت اتوماتیک تاریخ ها</t>
+  </si>
+  <si>
+    <t>افزودن validation به فرم ویرایش پروفایل</t>
   </si>
 </sst>
 </file>
@@ -399,7 +417,58 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -575,14 +644,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:F54" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
-  <autoFilter ref="A1:F54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:F58" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
+  <autoFilter ref="A1:F58">
     <filterColumn colId="1">
       <filters blank="1"/>
     </filterColumn>
     <filterColumn colId="2">
-      <filters>
-        <filter val="1"/>
+      <filters blank="1">
+        <filter val="1.5"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -590,12 +659,12 @@
     <sortCondition ref="A1:A53"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="اولویت" dataDxfId="7"/>
-    <tableColumn id="2" name="وضعیت" dataDxfId="6"/>
-    <tableColumn id="6" name="انتشار" dataDxfId="5"/>
-    <tableColumn id="3" name="عنوان" dataDxfId="4"/>
-    <tableColumn id="4" name="شرح" dataDxfId="3"/>
-    <tableColumn id="5" name="اقدامات" dataDxfId="2"/>
+    <tableColumn id="1" name="اولویت" dataDxfId="13"/>
+    <tableColumn id="2" name="وضعیت" dataDxfId="12"/>
+    <tableColumn id="6" name="انتشار" dataDxfId="11"/>
+    <tableColumn id="3" name="عنوان" dataDxfId="10"/>
+    <tableColumn id="4" name="شرح" dataDxfId="9"/>
+    <tableColumn id="5" name="اقدامات" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -864,11 +933,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F46" sqref="F46"/>
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1262,7 +1331,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2">
@@ -1518,7 +1587,7 @@
       <c r="E40" s="14"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1526,7 +1595,7 @@
       <c r="E41" s="14"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2">
@@ -1554,7 +1623,7 @@
       <c r="E43" s="14"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2">
@@ -1582,11 +1651,13 @@
       <c r="E45" s="14"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2">
         <v>5</v>
       </c>
-      <c r="B46" s="2"/>
+      <c r="B46" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C46" s="2">
         <v>1</v>
       </c>
@@ -1598,11 +1669,13 @@
       </c>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2">
         <v>6</v>
       </c>
-      <c r="B47" s="2"/>
+      <c r="B47" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C47" s="2">
         <v>1</v>
       </c>
@@ -1612,7 +1685,7 @@
       <c r="E47" s="14"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2">
         <v>7</v>
       </c>
@@ -1628,7 +1701,7 @@
       </c>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:6" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2">
         <v>8</v>
       </c>
@@ -1644,7 +1717,7 @@
       </c>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2">
         <v>10</v>
       </c>
@@ -1658,7 +1731,7 @@
       <c r="E50" s="12"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:6" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2">
         <v>9</v>
       </c>
@@ -1672,7 +1745,7 @@
       <c r="E51" s="14"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2">
         <v>10</v>
       </c>
@@ -1704,7 +1777,7 @@
       <c r="E53" s="14"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2">
         <v>11</v>
       </c>
@@ -1720,17 +1793,71 @@
       </c>
       <c r="F54" s="4"/>
     </row>
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="2">
+        <v>12</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2">
+        <v>1</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E55" s="14"/>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E58" s="14"/>
+      <c r="F58" s="4"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:C54">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+  <conditionalFormatting sqref="B2:C58">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"نیمه کاره"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
       <formula>"نیمه کاره"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/pm/backlog.xlsx
+++ b/pm/backlog.xlsx
@@ -205,9 +205,6 @@
     <t>ایجاد پنل مدیریت کاربران</t>
   </si>
   <si>
-    <t>کاربر ادمین سایت به کمک این فرم می تواند کاربران را فعال یا غیرفعال کند.کلیم های کاربر را مدیریت نماید.کلمه عبور آنها را ویرایش نماید</t>
-  </si>
-  <si>
     <t>هش کردن جدول کلیم و کلیم های کاربر</t>
   </si>
   <si>
@@ -287,6 +284,9 @@
   </si>
   <si>
     <t>افزودن validation به فرم ویرایش پروفایل</t>
+  </si>
+  <si>
+    <t>کاربر ادمین سایت به کمک این فرم می تواند کاربران را فعال یا غیرفعال کند.کلیم های کاربر را مدیریت نماید.کلمه عبور آنها را ویرایش نماید یا مشخصات پروفایل آنها را ویرایش نماید</t>
   </si>
 </sst>
 </file>
@@ -419,6 +419,30 @@
   </cellStyles>
   <dxfs count="20">
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -606,30 +630,6 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -644,14 +644,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:F58" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
-  <autoFilter ref="A1:F58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:F57" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
+  <autoFilter ref="A1:F57">
     <filterColumn colId="1">
       <filters blank="1"/>
     </filterColumn>
     <filterColumn colId="2">
       <filters blank="1">
-        <filter val="1.5"/>
+        <filter val="1"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -659,12 +659,12 @@
     <sortCondition ref="A1:A53"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="اولویت" dataDxfId="13"/>
-    <tableColumn id="2" name="وضعیت" dataDxfId="12"/>
-    <tableColumn id="6" name="انتشار" dataDxfId="11"/>
-    <tableColumn id="3" name="عنوان" dataDxfId="10"/>
-    <tableColumn id="4" name="شرح" dataDxfId="9"/>
-    <tableColumn id="5" name="اقدامات" dataDxfId="8"/>
+    <tableColumn id="1" name="اولویت" dataDxfId="16"/>
+    <tableColumn id="2" name="وضعیت" dataDxfId="15"/>
+    <tableColumn id="6" name="انتشار" dataDxfId="14"/>
+    <tableColumn id="3" name="عنوان" dataDxfId="13"/>
+    <tableColumn id="4" name="شرح" dataDxfId="12"/>
+    <tableColumn id="5" name="اقدامات" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -933,11 +933,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D59" sqref="D59"/>
+      <selection pane="topRight" activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1170,10 +1170,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="F13" s="4"/>
     </row>
@@ -1206,10 +1206,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>67</v>
       </c>
       <c r="F15" s="4"/>
     </row>
@@ -1224,10 +1224,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="18" t="s">
         <v>71</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>72</v>
       </c>
       <c r="F16" s="4"/>
     </row>
@@ -1242,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="4"/>
@@ -1258,7 +1258,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="4"/>
@@ -1290,10 +1290,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>74</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>75</v>
       </c>
       <c r="F20" s="4"/>
     </row>
@@ -1308,10 +1308,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="18" t="s">
         <v>78</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>79</v>
       </c>
       <c r="F21" s="4"/>
     </row>
@@ -1331,7 +1331,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2">
@@ -1582,62 +1582,70 @@
         <v>3</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E40" s="14"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="13"/>
+      <c r="C41" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="E41" s="14"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="2">
+        <v>3</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C42" s="2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E42" s="14"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="2">
-        <v>3</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>30</v>
-      </c>
+    <row r="43" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
       <c r="C43" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E43" s="14"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="2">
+        <v>4</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C44" s="2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E44" s="14"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>30</v>
@@ -1646,14 +1654,16 @@
         <v>1</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E45" s="14"/>
+        <v>50</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>30</v>
@@ -1662,166 +1672,162 @@
         <v>1</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>51</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E46" s="14"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2">
-        <v>6</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>30</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B47" s="2"/>
       <c r="C47" s="2">
         <v>1</v>
       </c>
-      <c r="D47" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E47" s="14"/>
+      <c r="D47" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2">
         <v>1</v>
       </c>
-      <c r="D48" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>61</v>
+      <c r="D48" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2">
-        <v>1</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>44</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="12"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E50" s="14"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2">
         <v>1</v>
       </c>
       <c r="D51" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="2">
+        <v>11</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
+      <c r="D52" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E51" s="14"/>
-      <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="2">
-        <v>10</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2">
-        <v>1</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>46</v>
-      </c>
+      <c r="E52" s="14"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="2">
         <v>11</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B53" s="2"/>
       <c r="C53" s="2">
         <v>1</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E53" s="14"/>
+        <v>80</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>81</v>
+      </c>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2">
         <v>1</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E54" s="14" t="s">
         <v>82</v>
       </c>
+      <c r="E54" s="14"/>
       <c r="F54" s="4"/>
     </row>
     <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="2">
-        <v>12</v>
-      </c>
+      <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D55" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E55" s="14"/>
+      <c r="E55" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2">
         <v>1.5</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E56" s="14" t="s">
         <v>85</v>
       </c>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2">
@@ -1830,34 +1836,20 @@
       <c r="D57" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E57" s="14" t="s">
-        <v>86</v>
-      </c>
+      <c r="E57" s="14"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E58" s="14"/>
-      <c r="F58" s="4"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:C58">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+  <conditionalFormatting sqref="B2:C57">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"نیمه کاره"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"نیمه کاره"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/pm/backlog.xlsx
+++ b/pm/backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="90">
   <si>
     <t>ویوی ادمین با قابلیت نمایش نام و نام خانوادگی درخواست کننده</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>کاربر ادمین سایت به کمک این فرم می تواند کاربران را فعال یا غیرفعال کند.کلیم های کاربر را مدیریت نماید.کلمه عبور آنها را ویرایش نماید یا مشخصات پروفایل آنها را ویرایش نماید</t>
+  </si>
+  <si>
+    <t>ایجاد فرم مدیریت کلیم های سیستم</t>
   </si>
 </sst>
 </file>
@@ -417,82 +420,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -630,6 +558,30 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -644,13 +596,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:F57" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
-  <autoFilter ref="A1:F57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:F58" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="A1:F58">
     <filterColumn colId="1">
       <filters blank="1"/>
     </filterColumn>
     <filterColumn colId="2">
-      <filters blank="1">
+      <filters>
         <filter val="1"/>
       </filters>
     </filterColumn>
@@ -659,12 +611,12 @@
     <sortCondition ref="A1:A53"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="اولویت" dataDxfId="16"/>
-    <tableColumn id="2" name="وضعیت" dataDxfId="15"/>
-    <tableColumn id="6" name="انتشار" dataDxfId="14"/>
-    <tableColumn id="3" name="عنوان" dataDxfId="13"/>
-    <tableColumn id="4" name="شرح" dataDxfId="12"/>
-    <tableColumn id="5" name="اقدامات" dataDxfId="11"/>
+    <tableColumn id="1" name="اولویت" dataDxfId="7"/>
+    <tableColumn id="2" name="وضعیت" dataDxfId="6"/>
+    <tableColumn id="6" name="انتشار" dataDxfId="5"/>
+    <tableColumn id="3" name="عنوان" dataDxfId="4"/>
+    <tableColumn id="4" name="شرح" dataDxfId="3"/>
+    <tableColumn id="5" name="اقدامات" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -933,23 +885,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E48" sqref="E48"/>
+      <selection pane="topRight" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.15625" style="1"/>
-    <col min="2" max="3" width="11.83984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.26171875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.1328125" style="1"/>
+    <col min="2" max="3" width="11.86328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.59765625" style="5" customWidth="1"/>
     <col min="6" max="6" width="65" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -969,7 +921,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -987,7 +939,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1003,7 +955,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1019,7 +971,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1039,7 +991,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="57.6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1057,7 +1009,7 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1075,7 +1027,7 @@
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -1091,7 +1043,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -1107,7 +1059,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -1123,7 +1075,7 @@
       <c r="E10" s="14"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>2</v>
       </c>
@@ -1141,7 +1093,7 @@
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>3</v>
       </c>
@@ -1159,7 +1111,7 @@
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -1177,7 +1129,7 @@
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -1195,7 +1147,7 @@
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>2</v>
       </c>
@@ -1213,7 +1165,7 @@
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>2</v>
       </c>
@@ -1231,7 +1183,7 @@
       </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -1247,7 +1199,7 @@
       <c r="E17" s="18"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>2</v>
       </c>
@@ -1263,7 +1215,7 @@
       <c r="E18" s="18"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>10</v>
       </c>
@@ -1279,7 +1231,7 @@
       <c r="E19" s="18"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" s="1" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>3</v>
       </c>
@@ -1297,7 +1249,7 @@
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -1315,7 +1267,7 @@
       </c>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>2</v>
       </c>
@@ -1331,7 +1283,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2">
@@ -1343,7 +1295,7 @@
       <c r="E23" s="18"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>6</v>
       </c>
@@ -1359,7 +1311,7 @@
       </c>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>8</v>
       </c>
@@ -1375,7 +1327,7 @@
       </c>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>9</v>
       </c>
@@ -1391,7 +1343,7 @@
       </c>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>3</v>
       </c>
@@ -1407,7 +1359,7 @@
       <c r="E27" s="10"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>13</v>
       </c>
@@ -1421,7 +1373,7 @@
       <c r="E28" s="12"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>14</v>
       </c>
@@ -1435,7 +1387,7 @@
       <c r="E29" s="10"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>14</v>
       </c>
@@ -1449,7 +1401,7 @@
       <c r="E30" s="12"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>20</v>
       </c>
@@ -1463,7 +1415,7 @@
       <c r="E31" s="12"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2">
@@ -1475,7 +1427,7 @@
       <c r="E32" s="14"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2">
@@ -1489,7 +1441,7 @@
       </c>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>12</v>
       </c>
@@ -1505,7 +1457,7 @@
       </c>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
         <v>15</v>
       </c>
@@ -1519,7 +1471,7 @@
       <c r="E35" s="12"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" s="2">
         <v>16</v>
       </c>
@@ -1533,7 +1485,7 @@
       <c r="E36" s="12"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37" s="2">
         <v>17</v>
       </c>
@@ -1547,7 +1499,7 @@
       <c r="E37" s="10"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38" s="2">
         <v>18</v>
       </c>
@@ -1561,7 +1513,7 @@
       <c r="E38" s="10"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39" s="2">
         <v>19</v>
       </c>
@@ -1575,7 +1527,7 @@
       <c r="E39" s="10"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2">
@@ -1587,7 +1539,7 @@
       <c r="E40" s="14"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2">
@@ -1599,7 +1551,7 @@
       <c r="E41" s="14"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42" s="2">
         <v>3</v>
       </c>
@@ -1615,7 +1567,7 @@
       <c r="E42" s="14"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2">
@@ -1627,7 +1579,7 @@
       <c r="E43" s="14"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44" s="2">
         <v>4</v>
       </c>
@@ -1643,7 +1595,7 @@
       <c r="E44" s="14"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45" s="2">
         <v>5</v>
       </c>
@@ -1661,7 +1613,7 @@
       </c>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A46" s="2">
         <v>6</v>
       </c>
@@ -1677,7 +1629,7 @@
       <c r="E46" s="14"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A47" s="2">
         <v>7</v>
       </c>
@@ -1693,7 +1645,7 @@
       </c>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A48" s="2">
         <v>8</v>
       </c>
@@ -1709,7 +1661,7 @@
       </c>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A49" s="2">
         <v>10</v>
       </c>
@@ -1723,7 +1675,7 @@
       <c r="E49" s="12"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A50" s="2">
         <v>9</v>
       </c>
@@ -1737,7 +1689,7 @@
       <c r="E50" s="14"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A51" s="2">
         <v>10</v>
       </c>
@@ -1753,7 +1705,7 @@
       </c>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52" s="2">
         <v>11</v>
       </c>
@@ -1769,7 +1721,7 @@
       <c r="E52" s="14"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="2">
         <v>11</v>
       </c>
@@ -1785,7 +1737,7 @@
       </c>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="2">
         <v>12</v>
       </c>
@@ -1799,7 +1751,7 @@
       <c r="E54" s="14"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2">
@@ -1813,7 +1765,7 @@
       </c>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2">
@@ -1827,7 +1779,7 @@
       </c>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2">
@@ -1839,17 +1791,29 @@
       <c r="E57" s="14"/>
       <c r="F57" s="4"/>
     </row>
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2">
+        <v>2</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" s="14"/>
+      <c r="F58" s="4"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:C57">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="B2:C58">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"نیمه کاره"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"نیمه کاره"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1869,7 +1833,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pm/backlog.xlsx
+++ b/pm/backlog.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="93">
   <si>
     <t>ویوی ادمین با قابلیت نمایش نام و نام خانوادگی درخواست کننده</t>
   </si>
@@ -154,9 +154,6 @@
     <t>افزودن فرآیند تایید ثبت نام</t>
   </si>
   <si>
-    <t>پس از ثبت نام توسط کاربر نام کاربری او در حالت غیرفعال بوده و امکان ورود به سایت را نخواهد داشت.در این حالت لازم است پس از تایید مبلغ واریزی و تطبیق مدارک آپلود شده با اطلاعات ثبت نام و پس از اختصاص کد سهامداری توسط ادمین ، نام کاربری تایید و فعال شود</t>
-  </si>
-  <si>
     <t>امکان آپلود مدارک به هنگام ثبت نام</t>
   </si>
   <si>
@@ -290,6 +287,18 @@
   </si>
   <si>
     <t>ایجاد فرم مدیریت کلیم های سیستم</t>
+  </si>
+  <si>
+    <t>امکان فعال و غیرفعال کردن کاربر</t>
+  </si>
+  <si>
+    <t>جلوگیری از ورود کاربری که غیرفعال است</t>
+  </si>
+  <si>
+    <t>پس از ثبت نام توسط کاربر نام کاربری او در حالت تایید نشده و غیرفعال بوده و امکان ورود به سایت را نخواهد داشت.در این حالت لازم است پس از تایید مبلغ واریزی و تطبیق مدارک آپلود شده با اطلاعات ثبت نام و پس از اختصاص کد سهامداری توسط ادمین ، نام کاربری تایید و فعال شود</t>
+  </si>
+  <si>
+    <t>جلوگیری از ویرایش نام کاربری در فرم مدیریت کاربران و مدیریت پروفایل کاربر</t>
   </si>
 </sst>
 </file>
@@ -420,7 +429,58 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -596,8 +656,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:F58" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
-  <autoFilter ref="A1:F58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:F61" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
+  <autoFilter ref="A1:F61">
     <filterColumn colId="1">
       <filters blank="1"/>
     </filterColumn>
@@ -611,12 +671,12 @@
     <sortCondition ref="A1:A53"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="اولویت" dataDxfId="7"/>
-    <tableColumn id="2" name="وضعیت" dataDxfId="6"/>
-    <tableColumn id="6" name="انتشار" dataDxfId="5"/>
-    <tableColumn id="3" name="عنوان" dataDxfId="4"/>
-    <tableColumn id="4" name="شرح" dataDxfId="3"/>
-    <tableColumn id="5" name="اقدامات" dataDxfId="2"/>
+    <tableColumn id="1" name="اولویت" dataDxfId="13"/>
+    <tableColumn id="2" name="وضعیت" dataDxfId="12"/>
+    <tableColumn id="6" name="انتشار" dataDxfId="11"/>
+    <tableColumn id="3" name="عنوان" dataDxfId="10"/>
+    <tableColumn id="4" name="شرح" dataDxfId="9"/>
+    <tableColumn id="5" name="اقدامات" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -885,11 +945,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D54" sqref="D54"/>
+      <selection pane="topRight" activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -909,7 +969,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>5</v>
@@ -1038,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1070,7 +1130,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="4"/>
@@ -1122,10 +1182,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>63</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>64</v>
       </c>
       <c r="F13" s="4"/>
     </row>
@@ -1140,10 +1200,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>54</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>55</v>
       </c>
       <c r="F14" s="4"/>
     </row>
@@ -1158,10 +1218,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>65</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>66</v>
       </c>
       <c r="F15" s="4"/>
     </row>
@@ -1176,10 +1236,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="18" t="s">
         <v>70</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>71</v>
       </c>
       <c r="F16" s="4"/>
     </row>
@@ -1194,7 +1254,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="4"/>
@@ -1210,7 +1270,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="4"/>
@@ -1226,7 +1286,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="4"/>
@@ -1242,10 +1302,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="F20" s="4"/>
     </row>
@@ -1260,10 +1320,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="18" t="s">
         <v>77</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>78</v>
       </c>
       <c r="F21" s="4"/>
     </row>
@@ -1290,7 +1350,7 @@
         <v>1.5</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="4"/>
@@ -1422,7 +1482,7 @@
         <v>2</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="4"/>
@@ -1434,10 +1494,10 @@
         <v>2</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F33" s="4"/>
     </row>
@@ -1534,7 +1594,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E40" s="14"/>
       <c r="F40" s="4"/>
@@ -1546,7 +1606,7 @@
         <v>1.5</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E41" s="14"/>
       <c r="F41" s="4"/>
@@ -1562,7 +1622,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E42" s="14"/>
       <c r="F42" s="4"/>
@@ -1574,7 +1634,7 @@
         <v>1.5</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E43" s="14"/>
       <c r="F43" s="4"/>
@@ -1590,7 +1650,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E44" s="14"/>
       <c r="F44" s="4"/>
@@ -1606,10 +1666,10 @@
         <v>1</v>
       </c>
       <c r="D45" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="14" t="s">
         <v>50</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>51</v>
       </c>
       <c r="F45" s="4"/>
     </row>
@@ -1624,24 +1684,26 @@
         <v>1</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E46" s="14"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47" s="2">
         <v>7</v>
       </c>
-      <c r="B47" s="2"/>
+      <c r="B47" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C47" s="2">
         <v>1</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F47" s="4"/>
     </row>
@@ -1657,7 +1719,7 @@
         <v>43</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="F48" s="4"/>
     </row>
@@ -1675,16 +1737,18 @@
       <c r="E49" s="12"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A50" s="2">
         <v>9</v>
       </c>
-      <c r="B50" s="2"/>
+      <c r="B50" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C50" s="2">
         <v>1</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E50" s="14"/>
       <c r="F50" s="4"/>
@@ -1698,10 +1762,10 @@
         <v>1</v>
       </c>
       <c r="D51" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51" s="14" t="s">
         <v>45</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>46</v>
       </c>
       <c r="F51" s="4"/>
     </row>
@@ -1716,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E52" s="14"/>
       <c r="F52" s="4"/>
@@ -1730,10 +1794,10 @@
         <v>1</v>
       </c>
       <c r="D53" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E53" s="14" t="s">
         <v>80</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>81</v>
       </c>
       <c r="F53" s="4"/>
     </row>
@@ -1746,7 +1810,7 @@
         <v>1</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E54" s="14"/>
       <c r="F54" s="4"/>
@@ -1758,10 +1822,10 @@
         <v>1.5</v>
       </c>
       <c r="D55" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E55" s="14" t="s">
         <v>83</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>84</v>
       </c>
       <c r="F55" s="4"/>
     </row>
@@ -1772,10 +1836,10 @@
         <v>1.5</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F56" s="4"/>
     </row>
@@ -1786,7 +1850,7 @@
         <v>1.5</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E57" s="14"/>
       <c r="F57" s="4"/>
@@ -1798,22 +1862,60 @@
         <v>2</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E58" s="14"/>
       <c r="F58" s="4"/>
     </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2">
+        <v>1</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E59" s="14"/>
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E60" s="14"/>
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" s="2">
+        <v>1</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E61" s="14"/>
+      <c r="F61" s="4"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:C58">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+  <conditionalFormatting sqref="B2:C61">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"نیمه کاره"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
       <formula>"نیمه کاره"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/pm/backlog.xlsx
+++ b/pm/backlog.xlsx
@@ -11,6 +11,7 @@
     <sheet name="ثبت معامله" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -429,75 +430,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -656,7 +589,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:F61" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:F61" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="A1:F61">
     <filterColumn colId="1">
       <filters blank="1"/>
@@ -671,12 +604,12 @@
     <sortCondition ref="A1:A53"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="اولویت" dataDxfId="13"/>
-    <tableColumn id="2" name="وضعیت" dataDxfId="12"/>
-    <tableColumn id="6" name="انتشار" dataDxfId="11"/>
-    <tableColumn id="3" name="عنوان" dataDxfId="10"/>
-    <tableColumn id="4" name="شرح" dataDxfId="9"/>
-    <tableColumn id="5" name="اقدامات" dataDxfId="8"/>
+    <tableColumn id="1" name="اولویت" dataDxfId="5"/>
+    <tableColumn id="2" name="وضعیت" dataDxfId="4"/>
+    <tableColumn id="6" name="انتشار" dataDxfId="3"/>
+    <tableColumn id="3" name="عنوان" dataDxfId="2"/>
+    <tableColumn id="4" name="شرح" dataDxfId="1"/>
+    <tableColumn id="5" name="اقدامات" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -949,7 +882,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B62" sqref="B62"/>
+      <selection pane="topRight" activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1891,7 +1824,7 @@
       <c r="E60" s="14"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A61" s="2"/>
       <c r="B61" s="2" t="s">
         <v>30</v>
@@ -1907,15 +1840,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:C61">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"نیمه کاره"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"نیمه کاره"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/pm/backlog.xlsx
+++ b/pm/backlog.xlsx
@@ -11,7 +11,6 @@
     <sheet name="ثبت معامله" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -882,19 +881,19 @@
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D65" sqref="D65"/>
+      <selection pane="topRight" activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1328125" style="1"/>
-    <col min="2" max="3" width="11.86328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.59765625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="1"/>
+    <col min="2" max="3" width="11.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.5703125" style="5" customWidth="1"/>
     <col min="6" max="6" width="65" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -914,7 +913,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -932,7 +931,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -948,7 +947,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -964,7 +963,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -984,7 +983,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1002,7 +1001,7 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1020,7 +1019,7 @@
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -1036,7 +1035,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -1052,7 +1051,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -1068,7 +1067,7 @@
       <c r="E10" s="14"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2</v>
       </c>
@@ -1086,7 +1085,7 @@
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>3</v>
       </c>
@@ -1104,7 +1103,7 @@
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -1122,7 +1121,7 @@
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -1140,7 +1139,7 @@
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2</v>
       </c>
@@ -1158,7 +1157,7 @@
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2</v>
       </c>
@@ -1176,7 +1175,7 @@
       </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -1192,7 +1191,7 @@
       <c r="E17" s="18"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2</v>
       </c>
@@ -1208,7 +1207,7 @@
       <c r="E18" s="18"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>10</v>
       </c>
@@ -1224,7 +1223,7 @@
       <c r="E19" s="18"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>3</v>
       </c>
@@ -1242,7 +1241,7 @@
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -1260,7 +1259,7 @@
       </c>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2</v>
       </c>
@@ -1276,7 +1275,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2">
@@ -1288,7 +1287,7 @@
       <c r="E23" s="18"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>6</v>
       </c>
@@ -1304,7 +1303,7 @@
       </c>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>8</v>
       </c>
@@ -1320,7 +1319,7 @@
       </c>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>9</v>
       </c>
@@ -1336,7 +1335,7 @@
       </c>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>3</v>
       </c>
@@ -1352,7 +1351,7 @@
       <c r="E27" s="10"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>13</v>
       </c>
@@ -1366,7 +1365,7 @@
       <c r="E28" s="12"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>14</v>
       </c>
@@ -1380,7 +1379,7 @@
       <c r="E29" s="10"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>14</v>
       </c>
@@ -1394,7 +1393,7 @@
       <c r="E30" s="12"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>20</v>
       </c>
@@ -1408,7 +1407,7 @@
       <c r="E31" s="12"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2">
@@ -1420,7 +1419,7 @@
       <c r="E32" s="14"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2">
@@ -1434,7 +1433,7 @@
       </c>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>12</v>
       </c>
@@ -1450,7 +1449,7 @@
       </c>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>15</v>
       </c>
@@ -1464,7 +1463,7 @@
       <c r="E35" s="12"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>16</v>
       </c>
@@ -1478,7 +1477,7 @@
       <c r="E36" s="12"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>17</v>
       </c>
@@ -1492,7 +1491,7 @@
       <c r="E37" s="10"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>18</v>
       </c>
@@ -1506,7 +1505,7 @@
       <c r="E38" s="10"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>19</v>
       </c>
@@ -1520,7 +1519,7 @@
       <c r="E39" s="10"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2">
@@ -1532,7 +1531,7 @@
       <c r="E40" s="14"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2">
@@ -1544,7 +1543,7 @@
       <c r="E41" s="14"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>3</v>
       </c>
@@ -1560,7 +1559,7 @@
       <c r="E42" s="14"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2">
@@ -1572,7 +1571,7 @@
       <c r="E43" s="14"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>4</v>
       </c>
@@ -1588,7 +1587,7 @@
       <c r="E44" s="14"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>5</v>
       </c>
@@ -1606,7 +1605,7 @@
       </c>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>6</v>
       </c>
@@ -1622,7 +1621,7 @@
       <c r="E46" s="14"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>7</v>
       </c>
@@ -1640,7 +1639,7 @@
       </c>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>8</v>
       </c>
@@ -1656,7 +1655,7 @@
       </c>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>10</v>
       </c>
@@ -1670,7 +1669,7 @@
       <c r="E49" s="12"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>9</v>
       </c>
@@ -1686,7 +1685,7 @@
       <c r="E50" s="14"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>10</v>
       </c>
@@ -1702,7 +1701,7 @@
       </c>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>11</v>
       </c>
@@ -1718,7 +1717,7 @@
       <c r="E52" s="14"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>11</v>
       </c>
@@ -1734,7 +1733,7 @@
       </c>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>12</v>
       </c>
@@ -1748,7 +1747,7 @@
       <c r="E54" s="14"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2">
@@ -1762,7 +1761,7 @@
       </c>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2">
@@ -1776,7 +1775,7 @@
       </c>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2">
@@ -1788,7 +1787,7 @@
       <c r="E57" s="14"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2">
@@ -1800,7 +1799,7 @@
       <c r="E58" s="14"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2">
@@ -1812,7 +1811,7 @@
       <c r="E59" s="14"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2">
@@ -1824,7 +1823,7 @@
       <c r="E60" s="14"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2" t="s">
         <v>30</v>
@@ -1868,7 +1867,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
